--- a/TM_CC/my_roles_in_JET.xlsx
+++ b/TM_CC/my_roles_in_JET.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Speech Evaluator</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Ah-counter</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,23 +400,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -418,7 +424,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -426,15 +432,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -442,25 +448,33 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5</v>
       </c>
     </row>
